--- a/src/test/java/data/DataYodyfile.xlsx
+++ b/src/test/java/data/DataYodyfile.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="185">
   <si>
     <t>username</t>
   </si>
@@ -571,13 +572,19 @@
   </si>
   <si>
     <t>Kiểm tra mua hàng với bỏ trống địa chỉ đơn hàng và nhập địa chỉ shipping hàng</t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công</t>
+  </si>
+  <si>
+    <t>tester2943865306@gmail.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +599,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -654,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -678,6 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -959,15 +973,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.140625" customWidth="1"/>
@@ -987,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,172 +1017,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>123456</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
-        <v>123456</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>123456</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1176,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,6 +1997,215 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">

--- a/src/test/java/data/DataYodyfile.xlsx
+++ b/src/test/java/data/DataYodyfile.xlsx
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/data/DataYodyfile.xlsx
+++ b/src/test/java/data/DataYodyfile.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="register" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="133">
   <si>
     <t>username</t>
   </si>
@@ -394,180 +394,15 @@
     <t>Kiểm tra đăng kí thành công</t>
   </si>
   <si>
-    <t xml:space="preserve">random </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra đăng kí thành công với số điện thoại chứa +84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập số điện thoại dưới 10 chữ số </t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại trên 10 chữ số</t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại đủ 10 số nhưng không bao gồm số 0 ở đầu</t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại là 1 dãy số liên tiếp 0123456789</t>
-  </si>
-  <si>
-    <t>Nhập SĐT  là chữ</t>
-  </si>
-  <si>
-    <t>Nhập SĐT  là ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Nhập SĐT  là số âm</t>
-  </si>
-  <si>
-    <t>Nhập SĐT  là số thập phân</t>
-  </si>
-  <si>
-    <t>Nhập SĐT  là toàn số 0</t>
-  </si>
-  <si>
-    <t>Nhập SĐT có chưa khoảng trắng ở giữa</t>
-  </si>
-  <si>
-    <t>Nhập SĐT có chưa khoảng trắng ở đầu và cuối</t>
-  </si>
-  <si>
-    <t>091923456</t>
-  </si>
-  <si>
-    <t>0919234563434</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>@*))</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>random số điện thoại có khoảng trắng ở giữa</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>random</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập họ tên không phân biệt hoa thường </t>
-  </si>
-  <si>
-    <t>ThUy THuy</t>
-  </si>
-  <si>
-    <t>ThUy Thuy 123435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập họ tên có chứa số  </t>
-  </si>
-  <si>
-    <t>ThUy Thuy Tester</t>
-  </si>
-  <si>
-    <t>0962351771</t>
-  </si>
-  <si>
-    <t>thuytest238829@gmail.com</t>
-  </si>
-  <si>
     <t>TC19</t>
   </si>
   <si>
-    <t>Nhập mật khẩu và refresh</t>
-  </si>
-  <si>
-    <t>TC20</t>
-  </si>
-  <si>
-    <t>thuythuyrandom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123456</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu có dấu cách</t>
-  </si>
-  <si>
-    <t>thuyrandom</t>
-  </si>
-  <si>
-    <t>TC21</t>
-  </si>
-  <si>
-    <t>thuyrandom23@tester.com</t>
-  </si>
-  <si>
-    <t>TC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thuy Nguyen </t>
-  </si>
-  <si>
-    <t>Bỏ trống họ tên</t>
-  </si>
-  <si>
-    <t>Bỏ trống email</t>
-  </si>
-  <si>
-    <t>Nhập email trùng trong hệ thống</t>
-  </si>
-  <si>
-    <t>TC23</t>
-  </si>
-  <si>
-    <t>Nhập email thiếu kí tự như (@,.com)</t>
-  </si>
-  <si>
-    <t>testerht.com</t>
-  </si>
-  <si>
-    <t>TC24</t>
-  </si>
-  <si>
-    <t>Nhập email toàn là kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>#$%^&amp;*(</t>
-  </si>
-  <si>
-    <t>spaceradom</t>
-  </si>
-  <si>
-    <t>TC25</t>
-  </si>
-  <si>
-    <t>TC26</t>
-  </si>
-  <si>
-    <t>TC27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Thuy     Nguyen    Space   </t>
-  </si>
-  <si>
-    <t>thuythuy12353456@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0944561324     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập họ và tên và bấm refresh </t>
-  </si>
-  <si>
-    <t>Nhập email bao gồm khoảng trắng đầu cuối</t>
-  </si>
-  <si>
-    <t>Nhập email bao gồm khoảng trắng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bỏ trống trường địa chỉ giao hàng </t>
   </si>
   <si>
@@ -578,6 +413,15 @@
   </si>
   <si>
     <t>tester2943865306@gmail.</t>
+  </si>
+  <si>
+    <t>Tester Nguyễn</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>01292394</t>
   </si>
 </sst>
 </file>
@@ -667,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -687,11 +531,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1020,13 +861,13 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1">
         <v>123456</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>183</v>
+      <c r="D3" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1374,7 +1215,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
@@ -1866,7 +1707,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>103</v>
@@ -1939,7 +1780,7 @@
     </row>
     <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>86</v>
@@ -2206,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>120</v>
@@ -2245,13 +2086,13 @@
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1">
         <v>123456</v>
@@ -2261,501 +2102,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9294458485</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-139495</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12324.923040199999</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1">
-        <v>1223456</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="thuythuy1235@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="thuythuy1235@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D15" r:id="rId4" display="thuythuy1235@gmail.com"/>
-    <hyperlink ref="D16" r:id="rId5" display="thuythuy1235@gmail.com"/>
-    <hyperlink ref="D18" r:id="rId6"/>
-    <hyperlink ref="D20" r:id="rId7" display="thuy272348@gmail.com"/>
-    <hyperlink ref="D21" r:id="rId8"/>
-    <hyperlink ref="D22" r:id="rId9"/>
-    <hyperlink ref="D5:D14" r:id="rId10" display="thuythuy12353456@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/java/data/DataYodyfile.xlsx
+++ b/src/test/java/data/DataYodyfile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>username</t>
   </si>
@@ -196,15 +196,6 @@
     <t>^&amp;(</t>
   </si>
   <si>
-    <t>0971903333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên chứa số </t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanh toán bằng momo </t>
-  </si>
-  <si>
     <t>name_billing</t>
   </si>
   <si>
@@ -229,162 +220,27 @@
     <t>address_shipping</t>
   </si>
   <si>
-    <t>097190333356576767</t>
-  </si>
-  <si>
-    <t>Thuy THI</t>
-  </si>
-  <si>
-    <t>Nhập sai định dạng số điện thoại</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
     <t>TC01</t>
   </si>
   <si>
-    <t>TC03</t>
-  </si>
-  <si>
     <t>payment_method</t>
   </si>
   <si>
     <t>qty</t>
   </si>
   <si>
-    <t>TC04</t>
-  </si>
-  <si>
     <t>VN_Pay</t>
   </si>
   <si>
-    <t>VN_Pay_QR</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
     <t>voucher</t>
   </si>
   <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>mũ</t>
-  </si>
-  <si>
-    <t>TC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra mua 1 sản phẩm số lượng là 2 </t>
-  </si>
-  <si>
-    <t>TC12</t>
-  </si>
-  <si>
-    <t>Kiểm tra mua 2 loại sản phẩm</t>
-  </si>
-  <si>
     <t>key_search2</t>
   </si>
   <si>
-    <t>Kiểm tra mua hàng, đến trang thanh toán thì đăng xuất ra</t>
-  </si>
-  <si>
-    <t>TC09</t>
-  </si>
-  <si>
     <t>thanh toán bằng VN PAY</t>
   </si>
   <si>
-    <t>thanh toán bằng VN PAY QR</t>
-  </si>
-  <si>
-    <t>Bỏ trống phương thức thanh toán</t>
-  </si>
-  <si>
-    <t>Kiểm tra đơn hàng lớn hơn 200 để được freeship</t>
-  </si>
-  <si>
-    <t>Kiểm tra đơn hàng nhỏ hơn 200 không được freeship</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>Kiểm tra nhập voucher không hợp lệ</t>
-  </si>
-  <si>
-    <t>TC11</t>
-  </si>
-  <si>
-    <t>Momo</t>
-  </si>
-  <si>
-    <t>tdfhdsd</t>
-  </si>
-  <si>
-    <t>Kiểm tra mua hàng không đăng nhập</t>
-  </si>
-  <si>
-    <t>thuytester@tester.com</t>
-  </si>
-  <si>
-    <t>TC13</t>
-  </si>
-  <si>
-    <t>Kiểm tra mua hàng, đến bước thanh toán thì đăng xuất ra</t>
-  </si>
-  <si>
-    <t>TC14</t>
-  </si>
-  <si>
-    <t>Kiểm tra mua hàng, đến bước thanh toán thì bấm quay lại ra</t>
-  </si>
-  <si>
-    <t>Kiểm tra mua hàng, đến bước thanh toán thì cancel</t>
-  </si>
-  <si>
-    <t>TC15</t>
-  </si>
-  <si>
-    <t>VN_PAY</t>
-  </si>
-  <si>
-    <t>Kiểm tra mua hàng với địa chỉ nhận hàng khác địa chỉ đơn hàng</t>
-  </si>
-  <si>
-    <t>TC16</t>
-  </si>
-  <si>
-    <t>Thuy Thuy</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>0918889999</t>
-  </si>
-  <si>
-    <t>TC17</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Test 13324</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Test</t>
-  </si>
-  <si>
-    <t>0971346666</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -400,15 +256,6 @@
     <t>random</t>
   </si>
   <si>
-    <t>TC19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bỏ trống trường địa chỉ giao hàng </t>
-  </si>
-  <si>
-    <t>Kiểm tra mua hàng với bỏ trống địa chỉ đơn hàng và nhập địa chỉ shipping hàng</t>
-  </si>
-  <si>
     <t>Đăng nhập không thành công</t>
   </si>
   <si>
@@ -422,13 +269,52 @@
   </si>
   <si>
     <t>01292394</t>
+  </si>
+  <si>
+    <t>Áo Polo Nữ Cafe Bo 3 Màu;Áo Polo Nữ Mắt Chim Basic</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thùy</t>
+  </si>
+  <si>
+    <t>0971347777</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thị xã Sơn Tây</t>
+  </si>
+  <si>
+    <t>Phường Lê Lợi</t>
+  </si>
+  <si>
+    <t>prv_billing</t>
+  </si>
+  <si>
+    <t>dist_billing</t>
+  </si>
+  <si>
+    <t>ward_billing</t>
+  </si>
+  <si>
+    <t>prv_shipping</t>
+  </si>
+  <si>
+    <t>dist_shipping</t>
+  </si>
+  <si>
+    <t>ward_shipping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +335,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -533,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,7 +715,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
@@ -828,7 +723,7 @@
     <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -842,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="25.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -856,18 +751,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1">
         <v>123456</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -888,13 +783,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,7 +803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -922,7 +817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -936,7 +831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -950,7 +845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -964,7 +859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -978,7 +873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -992,7 +887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1006,7 +901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1018,7 +913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1032,7 +927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1067,17 +962,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
     <col min="5" max="6" width="10.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="8" customWidth="1"/>
@@ -1089,59 +985,77 @@
     <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
+    <row r="1" spans="1:21" ht="30">
+      <c r="A1" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="105">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>2</v>
@@ -1150,689 +1064,47 @@
         <v>123456</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>1</v>
+      <c r="G2" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="K2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="7"/>
+      <c r="U2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C20" r:id="rId11"/>
-    <hyperlink ref="C12" r:id="rId12"/>
-    <hyperlink ref="C19" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1844,9 +1116,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1888,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1902,7 +1174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1930,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +1266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2006,25 +1278,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2049,11 +1321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
@@ -2061,18 +1333,18 @@
     <col min="6" max="6" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2081,29 +1353,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>123456</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" s="12" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/data/DataYodyfile.xlsx
+++ b/src/test/java/data/DataYodyfile.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>ward_shipping</t>
+  </si>
+  <si>
+    <t>Áo Polo Nữ Cafe Bo 3 Màu;</t>
+  </si>
+  <si>
+    <t>2;</t>
+  </si>
+  <si>
+    <t>TC02</t>
   </si>
 </sst>
 </file>
@@ -962,10 +971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,12 +1108,62 @@
       </c>
       <c r="U2" s="7"/>
     </row>
+    <row r="3" spans="1:21" ht="45">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
